--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC17_VerifyALL_Links_Myaccount.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC17_VerifyALL_Links_Myaccount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMANLiveBranch\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AE9E0E-DC18-4192-BC95-2F8E213EB02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F96C3-4B2E-4A12-B80C-76DF750F6FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="80">
   <si>
     <t>TestCase</t>
   </si>
@@ -707,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -1069,36 +1069,36 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
@@ -1106,55 +1106,55 @@
       <c r="D28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>70</v>
@@ -1162,51 +1162,49 @@
       <c r="D32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1215,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>53</v>
@@ -1225,144 +1223,142 @@
     <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>71</v>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>71</v>
+      <c r="E39" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4"/>
@@ -1370,7 +1366,7 @@
         <v>15</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>53</v>
@@ -1383,193 +1379,137 @@
         <v>9</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D54" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="B55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>74</v>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2"/>
-      <c r="B58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="D57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1585,13 +1525,13 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection activeCell="B10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2001,6 +1941,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2197,36 +2152,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
-    <ds:schemaRef ds:uri="fd27ab66-8f5a-4733-8e24-c3cb82244a05"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2249,9 +2178,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
+    <ds:schemaRef ds:uri="fd27ab66-8f5a-4733-8e24-c3cb82244a05"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC17_VerifyALL_Links_Myaccount.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC17_VerifyALL_Links_Myaccount.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMANLiveBranch\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vaibhav Oza\KAMAN_ECTEST_IE_SANITY-master\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F96C3-4B2E-4A12-B80C-76DF750F6FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TC17_VerifyALL_Links_Myaccount" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="80">
   <si>
     <t>TestCase</t>
   </si>
@@ -257,16 +256,16 @@
     <t>SignOut</t>
   </si>
   <si>
+    <t>Profile Settings</t>
+  </si>
+  <si>
     <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Profile Settings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -351,19 +350,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3CFE22BE-B6A1-4D79-8610-79B8125944C9}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,11 +710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -740,792 +744,801 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="4" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
+      <c r="D29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="4" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
+      <c r="D31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="4" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
+      <c r="D33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="D34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="4" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
+      <c r="D35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="4" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="D38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="4" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="4" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4" t="s">
+      <c r="D41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="D42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="4" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
+      <c r="D43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="D44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="4" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
+      <c r="D45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="4" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
+      <c r="D48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="4" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="4"/>
+      <c r="D50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D52" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D53" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2"/>
-      <c r="B54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D56" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="2" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4" t="s">
+      <c r="D57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="7"/>
+      <c r="B58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="D58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1546,279 +1559,279 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="b">
+      <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="b">
+      <c r="B6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="2" t="b">
+      <c r="B25" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="2" t="b">
+      <c r="B27" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2" t="b">
+      <c r="B28" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2" t="b">
+      <c r="B29" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="2" t="b">
+      <c r="B30" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="2" t="b">
+      <c r="B31" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="b">
+      <c r="B32" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="b">
+      <c r="B33" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="b">
+      <c r="B34" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="2" t="b">
+      <c r="B35" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2" t="b">
+      <c r="B36" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1826,111 +1839,111 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2" t="b">
+      <c r="B37" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="2" t="b">
+      <c r="B38" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="2" t="b">
+      <c r="B39" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2" t="b">
+      <c r="B40" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="2" t="b">
+      <c r="B41" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="2" t="b">
+      <c r="B42" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="2" t="b">
+      <c r="B43" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="2" t="b">
+      <c r="B44" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="2" t="b">
+      <c r="B45" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="2" t="b">
+      <c r="B46" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="2" t="b">
+      <c r="B47" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="7" t="b">
+      <c r="B48" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1941,21 +1954,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2152,32 +2150,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd27ab66-8f5a-4733-8e24-c3cb82244a05"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2194,4 +2182,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd27ab66-8f5a-4733-8e24-c3cb82244a05"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>